--- a/docs/LTA1_C/LTA1_C_05.08.24_output.xlsx
+++ b/docs/LTA1_C/LTA1_C_05.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731791785.730454</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731791786.6531935</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731791785.730454.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731791786.6531935.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>277.58</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>277.5</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-0.07999999999998408</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -591,95 +613,107 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731791789.0962014</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731791789.0962014.png</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731791789.0962014.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>277.24</v>
       </c>
-      <c r="J4" t="n">
-        <v>277.24</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>275.69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-1.550000000000011</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.5599999999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731791790.711697</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731791792.145516</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731791790.711697.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731791792.145516.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>128.11</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>127.79</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.3200000000000074</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -687,51 +721,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731791792.8663461</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731791793.35049</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731791792.8663461.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731791793.35049.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>128.27</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>127.78</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.4900000000000091</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -739,51 +779,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731791793.6172006</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731791794.805721</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731791793.6172006.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731791794.805721.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>128.2</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>127.86</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.3399999999999892</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -791,95 +837,107 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731791795.1193643</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731791795.1193643.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731791795.1193643.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>127.59</v>
       </c>
-      <c r="J8" t="n">
-        <v>127.59</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>127.48</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-0.1099999999999994</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731791796.521923</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731791797.8612783</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731791796.521923.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731791797.8612783.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>6409.5</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>6426.5</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>17</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -887,51 +945,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731791797.8752728</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731791800.0082924</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731791797.8752728.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731791800.0082924.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>6426.5</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>6418</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>8.5</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -939,95 +1003,107 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731791800.7230752</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731791800.7230752.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731791800.7230752.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>6415.5</v>
       </c>
-      <c r="J11" t="n">
-        <v>6415.5</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>6394.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-21</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731791802.2190368</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731791802.7364259</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731791802.2190368.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731791802.7364259.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>496.25</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>496.2</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-0.05000000000001137</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -1035,51 +1111,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731791802.7503617</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731791804.7754908</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731791802.7503617.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731791804.7754908.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>496.2</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>495.5</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.6999999999999886</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -1087,95 +1169,107 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731791805.217847</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731791805.217847.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731791805.217847.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>493.7</v>
       </c>
-      <c r="J14" t="n">
-        <v>493.7</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>492.9</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-0.8000000000000114</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731791805.9100468</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731791808.1452668</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731791805.9100468.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731791808.1452668.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>223.94</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>224.2</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.2599999999999909</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -1183,51 +1277,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731791808.1592655</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731791810.8819067</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731791808.1592655.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731791810.8819067.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>224.2</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>224.02</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.1799999999999784</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1235,95 +1335,107 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731791811.1538198</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731791811.1538198.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731791811.1538198.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>223.6</v>
       </c>
-      <c r="J17" t="n">
-        <v>223.6</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>223.39</v>
+      </c>
+      <c r="M17" t="n">
+        <v>-0.210000000000008</v>
+      </c>
+      <c r="N17" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731791811.3507144</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731791812.5019612</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731791811.3507144.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731791812.5019612.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>1010</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>1003.8</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>6.200000000000045</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.61</v>
       </c>
     </row>
@@ -1331,51 +1443,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731791812.864444</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731791813.1880872</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731791812.864444.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731791813.1880872.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>1000</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>1004.4</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>4.399999999999977</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -1383,51 +1501,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731791813.2832325</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731791814.9532886</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731791813.2832325.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731791814.9532886.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>1005.8</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>1005.2</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.5999999999999091</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -1435,95 +1559,107 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731791815.6882768</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731791815.6882768.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731791815.6882768.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>11.925</v>
       </c>
-      <c r="J21" t="n">
-        <v>11.925</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>11.928</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.003000000000000114</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731791820.6994548</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731791820.8352466</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731791820.6994548.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731791820.8352466.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>123.84</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>124.34</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.5</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -1531,51 +1667,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731791821.5481722</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731791824.5877059</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731791821.5481722.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731791824.5877059.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>124.42</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>124.04</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.3799999999999955</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -1583,51 +1725,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731791824.8933806</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731791826.9252539</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731791824.8933806.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731791826.9252539.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>160.8</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>160.28</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-0.5200000000000102</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -1635,51 +1783,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731791827.367762</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731791828.6378534</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731791827.367762.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731791828.6378534.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>160.8</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>160.66</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.1400000000000148</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -1687,51 +1841,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731791829.6968808</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731791831.5630202</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731791829.6968808.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731791831.5630202.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>49.12</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>49.06</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-0.05999999999999517</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>-0.12</v>
       </c>
     </row>
@@ -1739,51 +1899,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731791831.9029045</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731791833.8723202</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731791831.9029045.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731791833.8723202.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>49.175</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>48.97</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.2049999999999983</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -1791,95 +1957,107 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731791834.1933298</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731791834.1933298.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731791834.1933298.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>48.915</v>
       </c>
-      <c r="J28" t="n">
-        <v>48.915</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>48.845</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-0.07000000000000028</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731791835.0587735</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731791836.7996805</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731791835.0587735.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731791836.7996805.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>1382.4</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>1375</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-7.400000000000091</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>-0.54</v>
       </c>
     </row>
@@ -1887,51 +2065,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731791837.6513202</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731791839.0607357</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731791837.6513202.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731791839.0607357.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1380</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>1376.4</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>3.599999999999909</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -1939,51 +2123,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731791842.0747483</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731791842.2264216</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731791842.0747483.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731791842.2264216.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>58.83</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>59.37</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.5399999999999991</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.9199999999999999</v>
       </c>
     </row>
@@ -1991,51 +2181,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731791842.5565238</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731791844.91858</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731791842.5565238.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731791844.91858.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>59.51</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>59.47</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.03999999999999915</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -2043,95 +2239,107 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731791845.5269089</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731791845.5269089.png</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731791845.5269089.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>59.35</v>
       </c>
-      <c r="J33" t="n">
-        <v>59.35</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>59.38</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.03000000000000114</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731791845.6107404</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731791848.022976</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731791845.6107404.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731791848.022976.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>95.73999999999999</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>95.84999999999999</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.1099999999999994</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -2139,51 +2347,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731791849.1413834</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731791850.4768126</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/SELG1731791849.1413834.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/SELG1731791850.4768126.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>55.88</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>56.16</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.279999999999994</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -2191,51 +2405,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731791850.578033</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731791851.168428</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/SELG1731791850.578033.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/SELG1731791851.168428.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>55.85</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>56.12</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.269999999999996</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -2243,95 +2463,107 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731791854.3055775</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731791854.3055775.png</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731791854.3055775.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>55.98</v>
       </c>
-      <c r="J37" t="n">
-        <v>55.98</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>55.96</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.01999999999999602</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731791855.4547708</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731791856.665271</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731791855.4547708.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731791856.665271.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>139.12</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>141.52</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>2.400000000000006</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>1.73</v>
       </c>
     </row>
@@ -2339,51 +2571,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731791856.9680295</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731791859.2218933</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731791856.9680295.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731791859.2218933.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>141.74</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>141.68</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -2391,95 +2629,107 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731791859.6135595</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731791859.6135595.png</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731791859.6135595.png</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>141.46</v>
       </c>
-      <c r="J40" t="n">
-        <v>141.46</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>141.34</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-0.1200000000000045</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731791860.348089</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731791861.752613</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731791860.348089.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731791861.752613.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>20.002</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>19.845</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.157</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>-0.7799999999999999</v>
       </c>
     </row>
@@ -2487,51 +2737,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731791862.155993</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731791863.9245427</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731791862.155993.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731791863.9245427.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>19.906</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>19.863</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.04299999999999926</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -2539,51 +2795,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731791864.0795507</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731791864.1971748</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731791864.0795507.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731791864.1971748.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>19.798</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>19.898</v>
       </c>
-      <c r="K43" t="n">
-        <v>0.09999999999999787</v>
-      </c>
-      <c r="L43" t="n">
+      <c r="M43" t="n">
+        <v>0.1000000000000014</v>
+      </c>
+      <c r="N43" t="n">
         <v>0.51</v>
       </c>
     </row>
@@ -2591,95 +2853,107 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731791864.3659613</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731791864.3659613.png</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731791864.3659613.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>19.793</v>
       </c>
-      <c r="J44" t="n">
-        <v>19.793</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>19.761</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-0.03200000000000003</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731791865.0470397</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731791865.901826</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731791865.0470397.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731791865.901826.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>650.6</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>661.4</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>10.79999999999995</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>1.66</v>
       </c>
     </row>
@@ -2687,51 +2961,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731791867.101534</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731791867.500833</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731791867.101534.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731791867.500833.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>656</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>659.25</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>3.25</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -2739,51 +3019,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731791867.9964015</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731791869.792446</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731791867.9964015.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731791869.792446.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>661.85</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>658.15</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>3.700000000000045</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.5599999999999999</v>
       </c>
     </row>
@@ -2791,51 +3077,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731791874.298527</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731791875.8080661</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/FEES1731791874.298527.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/FEES1731791875.8080661.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>0.09546</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>0.09488000000000001</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.0005799999999999972</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>-0.61</v>
       </c>
     </row>
@@ -2843,51 +3135,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731791875.9800487</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731791878.0447056</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/FEES1731791875.9800487.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/FEES1731791878.0447056.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>0.09506000000000001</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>0.0951</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>-3.999999999999837e-05</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -2895,139 +3193,157 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731791878.5732794</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731791878.5732794.png</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731791878.5732794.png</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>0.09472000000000001</v>
       </c>
-      <c r="J50" t="n">
-        <v>0.09472000000000001</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0</v>
-      </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>0.09504</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.000319999999999987</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>HYDR</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731791880.1448138</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>./test_images/HYDR1731791880.1448138.png</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
+          <t>./test_images/HYDR1731791880.1448138.png</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>95.22</v>
       </c>
-      <c r="J51" t="n">
-        <v>95.22</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0</v>
-      </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>94.73</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-0.4899999999999949</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.51</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731791881.7541327</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731791883.2639902</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/MXI1731791881.7541327.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/MXI1731791883.2639902.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>2896.25</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>2894</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>-2.25</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -3035,51 +3351,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731791883.652822</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731791885.7882938</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/MXI1731791883.652822.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/MXI1731791885.7882938.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>2901.45</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>2898.6</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>2.849999999999909</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -3087,95 +3409,107 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731791886.5702336</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731791886.5702336.png</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731791886.5702336.png</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>2895.4</v>
       </c>
-      <c r="J54" t="n">
-        <v>2895.4</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0</v>
-      </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>2888</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-7.400000000000091</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731791886.8145778</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731791888.1770134</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731791886.8145778.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731791888.1770134.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>11.884</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>11.914</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.02999999999999936</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -3183,44 +3517,50 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731791888.5273087</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1731791888.5273087.png</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1731791888.5273087.png</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>11.911</v>
       </c>
-      <c r="J56" t="n">
-        <v>11.911</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
-      </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>11.96</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-0.04900000000000126</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.41</v>
       </c>
     </row>
   </sheetData>
@@ -3281,19 +3621,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.0140000000000029</v>
+        <v>-0.04599999999999937</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.003500000000000725</v>
+        <v>-0.01149999999999984</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.04999999999999993</v>
+        <v>-0.2099999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.01</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="3">
@@ -3303,19 +3643,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5099999999999909</v>
+        <v>0.3999999999999915</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1274999999999977</v>
+        <v>0.09999999999999787</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -3325,19 +3665,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4399999999999693</v>
+        <v>0.2299999999999613</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1466666666666564</v>
+        <v>0.07666666666665378</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="5">
@@ -3347,19 +3687,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.460000000000008</v>
+        <v>2.340000000000003</v>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8200000000000026</v>
+        <v>0.7800000000000011</v>
       </c>
       <c r="E5" t="n">
-        <v>1.77</v>
+        <v>1.69</v>
       </c>
       <c r="F5" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -3391,19 +3731,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5499999999999901</v>
+        <v>0.529999999999994</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.18333333333333</v>
+        <v>0.1766666666666647</v>
       </c>
       <c r="E7" t="n">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="8">
@@ -3413,19 +3753,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6499999999999773</v>
+        <v>-0.1500000000000341</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2166666666666591</v>
+        <v>-0.05000000000001137</v>
       </c>
       <c r="E8" t="n">
-        <v>0.13</v>
+        <v>-0.03000000000000003</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="9">
@@ -3457,19 +3797,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5799999999999983</v>
+        <v>0.6099999999999994</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1933333333333328</v>
+        <v>0.2033333333333331</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9899999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="F10" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="11">
@@ -3479,19 +3819,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5999999999999091</v>
+        <v>-6.800000000000182</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1999999999999697</v>
+        <v>-2.266666666666727</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02</v>
+        <v>-0.24</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="12">
@@ -3501,19 +3841,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1450000000000031</v>
+        <v>0.07500000000000284</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04833333333333437</v>
+        <v>0.02500000000000095</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3</v>
+        <v>0.16</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="13">
@@ -3523,19 +3863,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>25.5</v>
+        <v>4.5</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>8.5</v>
+        <v>1.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.4</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>0.13</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="14">
@@ -3545,19 +3885,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0006199999999999956</v>
+        <v>-0.0003000000000000086</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0002066666666666652</v>
+        <v>-0.0001000000000000029</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.65</v>
+        <v>-0.31</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.22</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="15">
@@ -3611,19 +3951,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02999999999999936</v>
+        <v>-0.0190000000000019</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>0.01499999999999968</v>
+        <v>-0.009500000000000952</v>
       </c>
       <c r="E17" t="n">
-        <v>0.25</v>
+        <v>-0.16</v>
       </c>
       <c r="F17" t="n">
-        <v>0.12</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="18">
@@ -3633,19 +3973,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.07999999999998408</v>
+        <v>-1.629999999999995</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.03999999999999204</v>
+        <v>-0.8149999999999977</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.03</v>
+        <v>-0.59</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.02</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="19">
@@ -3677,19 +4017,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-0.4899999999999949</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-0.4899999999999949</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-0.51</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="21">
@@ -3699,19 +4039,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.003000000000000114</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.003000000000000114</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="22">
